--- a/Room1.xlsx
+++ b/Room1.xlsx
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>Reinhold</t>
+  </si>
+  <si>
+    <t>INSPIRE,FLEET,BOOK</t>
+  </si>
+  <si>
+    <t>INSPIRE,FLEET,BOOK</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dnonz22ez/image/upload/v1591397026/Event%20Galleries/Altitude/bukem-altitude/flyer/bukem-altitude.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397021/Event%20Galleries/Altitude/dnb-friday-060320/flyer/room-1-dnb-friday-altitude_b80ypv.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397021/Event%20Galleries/Altitude/dnb-friday-310120/flyer/room-one-dnb-friday-310120_pkzjkt.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591396721/Event%20Galleries/Altitude/dnb-secret-190420/flyer/room1-dnb-secret-altitude_rsfym4.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397027/Event%20Galleries/Altitude/virtual-complex-150220/flyer/virtual-complex-altitude_k996oh.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591396721/Event%20Galleries/Altitude/dnb-tuesdays-020420/flyer/tuef-hulture-altitude_qyovcj.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dnonz22ez/image/upload/v1591397026/Event%20Galleries/Altitude/bukem/flyer/bukem-altitude.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397021/Event%20Galleries/Altitude/dnb-friday-060320/flyer/room-1-dnb-friday-altitude_b80ypv.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397021/Event%20Galleries/Altitude/dnb-friday-310120/flyer/room-one-dnb-friday-310120_pkzjkt.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591396721/Event%20Galleries/Altitude/dnb-secret-190420/flyer/room1-dnb-secret-altitude_rsfym4.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591397027/Event%20Galleries/Altitude/virtual-complex-150220/flyer/virtual-complex-altitude_k996oh.jpg https://res.cloudinary.com/dnonz22ez/image/upload/v1591396721/Event%20Galleries/Altitude/dnb-tuesdays-020420/flyer/tuef-hulture-altitude_qyovcj.jpg</t>
   </si>
   <si>
     <t>INSPIRE,FLEET,BOOK</t>
@@ -833,7 +845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43" defaultRowHeight="15"/>
@@ -969,7 +981,7 @@
         <v>32</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>97</v>
